--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ly86-Cd180.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ly86-Cd180.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ly86</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.487822034686827</v>
+        <v>0.4933343333333333</v>
       </c>
       <c r="H2">
-        <v>0.487822034686827</v>
+        <v>1.480003</v>
       </c>
       <c r="I2">
-        <v>0.004126160447595728</v>
+        <v>0.003704586072018129</v>
       </c>
       <c r="J2">
-        <v>0.004126160447595728</v>
+        <v>0.003704586072018129</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.34230350252015</v>
+        <v>1.349047333333333</v>
       </c>
       <c r="N2">
-        <v>1.34230350252015</v>
+        <v>4.047142</v>
       </c>
       <c r="O2">
-        <v>0.02373975166989579</v>
+        <v>0.0190104476758723</v>
       </c>
       <c r="P2">
-        <v>0.02373975166989579</v>
+        <v>0.0190104476758723</v>
       </c>
       <c r="Q2">
-        <v>0.6548052257666339</v>
+        <v>0.665531366825111</v>
       </c>
       <c r="R2">
-        <v>0.6548052257666339</v>
+        <v>5.989782301426</v>
       </c>
       <c r="S2">
-        <v>9.795402437606865E-05</v>
+        <v>7.042583968286593E-05</v>
       </c>
       <c r="T2">
-        <v>9.795402437606865E-05</v>
+        <v>7.042583968286591E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.487822034686827</v>
+        <v>0.4933343333333333</v>
       </c>
       <c r="H3">
-        <v>0.487822034686827</v>
+        <v>1.480003</v>
       </c>
       <c r="I3">
-        <v>0.004126160447595728</v>
+        <v>0.003704586072018129</v>
       </c>
       <c r="J3">
-        <v>0.004126160447595728</v>
+        <v>0.003704586072018129</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.41879787014</v>
+        <v>68.00131366666666</v>
       </c>
       <c r="N3">
-        <v>54.41879787014</v>
+        <v>204.003941</v>
       </c>
       <c r="O3">
-        <v>0.9624416126352053</v>
+        <v>0.9582580117159811</v>
       </c>
       <c r="P3">
-        <v>0.9624416126352053</v>
+        <v>0.958258011715981</v>
       </c>
       <c r="Q3">
-        <v>26.54668870222286</v>
+        <v>33.54738274353588</v>
       </c>
       <c r="R3">
-        <v>26.54668870222286</v>
+        <v>301.926444691823</v>
       </c>
       <c r="S3">
-        <v>0.003971188515175634</v>
+        <v>0.003549949283602808</v>
       </c>
       <c r="T3">
-        <v>0.003971188515175634</v>
+        <v>0.003549949283602808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.487822034686827</v>
+        <v>0.4933343333333333</v>
       </c>
       <c r="H4">
-        <v>0.487822034686827</v>
+        <v>1.480003</v>
       </c>
       <c r="I4">
-        <v>0.004126160447595728</v>
+        <v>0.003704586072018129</v>
       </c>
       <c r="J4">
-        <v>0.004126160447595728</v>
+        <v>0.003704586072018129</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.781339390202396</v>
+        <v>1.613109</v>
       </c>
       <c r="N4">
-        <v>0.781339390202396</v>
+        <v>4.839327</v>
       </c>
       <c r="O4">
-        <v>0.01381863569489885</v>
+        <v>0.0227315406081467</v>
       </c>
       <c r="P4">
-        <v>0.01381863569489885</v>
+        <v>0.0227315406081467</v>
       </c>
       <c r="Q4">
-        <v>0.3811545711094975</v>
+        <v>0.795802053109</v>
       </c>
       <c r="R4">
-        <v>0.3811545711094975</v>
+        <v>7.162218477981</v>
       </c>
       <c r="S4">
-        <v>5.701790804402613E-05</v>
+        <v>8.421094873245478E-05</v>
       </c>
       <c r="T4">
-        <v>5.701790804402613E-05</v>
+        <v>8.421094873245476E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>117.738805572845</v>
+        <v>130.9445773333333</v>
       </c>
       <c r="H5">
-        <v>117.738805572845</v>
+        <v>392.8337319999999</v>
       </c>
       <c r="I5">
-        <v>0.9958738395524043</v>
+        <v>0.9832996096535629</v>
       </c>
       <c r="J5">
-        <v>0.9958738395524043</v>
+        <v>0.983299609653563</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.34230350252015</v>
+        <v>1.349047333333333</v>
       </c>
       <c r="N5">
-        <v>1.34230350252015</v>
+        <v>4.047142</v>
       </c>
       <c r="O5">
-        <v>0.02373975166989579</v>
+        <v>0.0190104476758723</v>
       </c>
       <c r="P5">
-        <v>0.02373975166989579</v>
+        <v>0.0190104476758723</v>
       </c>
       <c r="Q5">
-        <v>158.0412111029688</v>
+        <v>176.6504328659937</v>
       </c>
       <c r="R5">
-        <v>158.0412111029688</v>
+        <v>1589.853895793944</v>
       </c>
       <c r="S5">
-        <v>0.02364179764551972</v>
+        <v>0.01869296577902471</v>
       </c>
       <c r="T5">
-        <v>0.02364179764551972</v>
+        <v>0.01869296577902471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>117.738805572845</v>
+        <v>130.9445773333333</v>
       </c>
       <c r="H6">
-        <v>117.738805572845</v>
+        <v>392.8337319999999</v>
       </c>
       <c r="I6">
-        <v>0.9958738395524043</v>
+        <v>0.9832996096535629</v>
       </c>
       <c r="J6">
-        <v>0.9958738395524043</v>
+        <v>0.983299609653563</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>54.41879787014</v>
+        <v>68.00131366666666</v>
       </c>
       <c r="N6">
-        <v>54.41879787014</v>
+        <v>204.003941</v>
       </c>
       <c r="O6">
-        <v>0.9624416126352053</v>
+        <v>0.9582580117159811</v>
       </c>
       <c r="P6">
-        <v>0.9624416126352053</v>
+        <v>0.958258011715981</v>
       </c>
       <c r="Q6">
-        <v>6407.204261940365</v>
+        <v>8904.403276193088</v>
       </c>
       <c r="R6">
-        <v>6407.204261940365</v>
+        <v>80139.62948573779</v>
       </c>
       <c r="S6">
-        <v>0.9584704241200297</v>
+        <v>0.9422547288677235</v>
       </c>
       <c r="T6">
-        <v>0.9584704241200297</v>
+        <v>0.9422547288677235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>130.9445773333333</v>
+      </c>
+      <c r="H7">
+        <v>392.8337319999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9832996096535629</v>
+      </c>
+      <c r="J7">
+        <v>0.983299609653563</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.613109</v>
+      </c>
+      <c r="N7">
+        <v>4.839327</v>
+      </c>
+      <c r="O7">
+        <v>0.0227315406081467</v>
+      </c>
+      <c r="P7">
+        <v>0.0227315406081467</v>
+      </c>
+      <c r="Q7">
+        <v>211.2278761975959</v>
+      </c>
+      <c r="R7">
+        <v>1901.050885778364</v>
+      </c>
+      <c r="S7">
+        <v>0.02235191500681476</v>
+      </c>
+      <c r="T7">
+        <v>0.02235191500681476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>117.738805572845</v>
-      </c>
-      <c r="H7">
-        <v>117.738805572845</v>
-      </c>
-      <c r="I7">
-        <v>0.9958738395524043</v>
-      </c>
-      <c r="J7">
-        <v>0.9958738395524043</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.781339390202396</v>
-      </c>
-      <c r="N7">
-        <v>0.781339390202396</v>
-      </c>
-      <c r="O7">
-        <v>0.01381863569489885</v>
-      </c>
-      <c r="P7">
-        <v>0.01381863569489885</v>
-      </c>
-      <c r="Q7">
-        <v>91.99396654944516</v>
-      </c>
-      <c r="R7">
-        <v>91.99396654944516</v>
-      </c>
-      <c r="S7">
-        <v>0.01376161778685482</v>
-      </c>
-      <c r="T7">
-        <v>0.01376161778685482</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>1.730632333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.191897</v>
+      </c>
+      <c r="I8">
+        <v>0.01299580427441884</v>
+      </c>
+      <c r="J8">
+        <v>0.01299580427441884</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.349047333333333</v>
+      </c>
+      <c r="N8">
+        <v>4.047142</v>
+      </c>
+      <c r="O8">
+        <v>0.0190104476758723</v>
+      </c>
+      <c r="P8">
+        <v>0.0190104476758723</v>
+      </c>
+      <c r="Q8">
+        <v>2.334704934263778</v>
+      </c>
+      <c r="R8">
+        <v>21.012344408374</v>
+      </c>
+      <c r="S8">
+        <v>0.0002470560571647169</v>
+      </c>
+      <c r="T8">
+        <v>0.0002470560571647169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>1.730632333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.191897</v>
+      </c>
+      <c r="I9">
+        <v>0.01299580427441884</v>
+      </c>
+      <c r="J9">
+        <v>0.01299580427441884</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>68.00131366666666</v>
+      </c>
+      <c r="N9">
+        <v>204.003941</v>
+      </c>
+      <c r="O9">
+        <v>0.9582580117159811</v>
+      </c>
+      <c r="P9">
+        <v>0.958258011715981</v>
+      </c>
+      <c r="Q9">
+        <v>117.6852721406752</v>
+      </c>
+      <c r="R9">
+        <v>1059.167449266077</v>
+      </c>
+      <c r="S9">
+        <v>0.01245333356465465</v>
+      </c>
+      <c r="T9">
+        <v>0.01245333356465465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>1.730632333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.191897</v>
+      </c>
+      <c r="I10">
+        <v>0.01299580427441884</v>
+      </c>
+      <c r="J10">
+        <v>0.01299580427441884</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.613109</v>
+      </c>
+      <c r="N10">
+        <v>4.839327</v>
+      </c>
+      <c r="O10">
+        <v>0.0227315406081467</v>
+      </c>
+      <c r="P10">
+        <v>0.0227315406081467</v>
+      </c>
+      <c r="Q10">
+        <v>2.791698592591</v>
+      </c>
+      <c r="R10">
+        <v>25.125287333319</v>
+      </c>
+      <c r="S10">
+        <v>0.0002954146525994783</v>
+      </c>
+      <c r="T10">
+        <v>0.0002954146525994783</v>
       </c>
     </row>
   </sheetData>
